--- a/data/trans_bre/P3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P3_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-1,06</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>-0,15</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,46</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>-6,69%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-3,05%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-3,01%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-7,7%</t>
+          <t>-1,57%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>-0,35%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-6,78%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-3,22%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>-0,53%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-1,56%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 2,45</t>
+          <t>-7,15; 2,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 4,63</t>
+          <t>-5,93; 4,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 3,89</t>
+          <t>-4,98; 4,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 2,33</t>
+          <t>-7,43; 2,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 4,62</t>
+          <t>-6,6; 5,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,66; 8,32</t>
+          <t>-4,9; 4,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,41; 15,08</t>
+          <t>-5,4; 4,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 12,75</t>
+          <t>-20,18; 9,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 7,67</t>
+          <t>-16,8; 15,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-17,32; 17,83</t>
+          <t>-14,43; 16,41</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-20,38; 9,46</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-18,35; 17,56</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-16,35; 17,46</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-16,98; 16,97</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,04</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,8</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-7,02</t>
+          <t>-6,46</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,81</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3,86</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>-6,33%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-7,69%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-11,06%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-6,25%</t>
+          <t>-7,11%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>-10,23%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-6,2%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-7,41%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>7,97%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 2,11</t>
+          <t>-9,92; 2,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 2,42</t>
+          <t>-10,68; 2,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,74; -0,6</t>
+          <t>-12,74; -0,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 3,12</t>
+          <t>-10,42; 2,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 11,5</t>
+          <t>-12,33; 2,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,27; 3,66</t>
+          <t>-7,84; 11,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,64; 4,41</t>
+          <t>-6,88; 13,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,19; -0,9</t>
+          <t>-14,8; 4,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 5,65</t>
+          <t>-16,28; 4,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 25,18</t>
+          <t>-18,82; -0,92</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-16,2; 4,83</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-18,67; 4,18</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-14,21; 23,83</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-12,46; 31,3</t>
         </is>
       </c>
     </row>
@@ -876,50 +988,70 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,62</t>
+          <t>8,13</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>6,66</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,61</t>
+          <t>6,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>-4,88</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>6,29%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9,02%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9,47%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-6,23%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,50 +1066,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 17,38</t>
+          <t>-4,21; 16,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 22,14</t>
+          <t>-2,09; 23,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 16,87</t>
+          <t>-3,41; 18,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 18,16</t>
+          <t>-3,71; 20,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-17,86; 9,3</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-5,22; 24,94</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 33,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 25,03</t>
+          <t>-4,77; 23,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 28,65</t>
+          <t>-2,43; 38,78</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-4,19; 28,59</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,56; 34,0</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-21,19; 13,31</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-3,71</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>-5,6%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-4,46%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-7,05%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-5,97%</t>
+          <t>-3,61%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-1,46%</t>
+          <t>-5,56%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-5,37%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-7,43%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-1,44%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,31%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 0,72</t>
+          <t>-6,82; 1,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 2,13</t>
+          <t>-5,62; 2,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 0,3</t>
+          <t>-6,79; 1,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 1,21</t>
+          <t>-6,78; 1,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 4,22</t>
+          <t>-8,91; 0,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 1,52</t>
+          <t>-4,88; 3,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 4,38</t>
+          <t>-4,33; 4,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 0,73</t>
+          <t>-12,69; 2,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 2,56</t>
+          <t>-10,76; 6,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-13,62; 13,64</t>
+          <t>-13,01; 2,88</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-13,11; 2,9</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-16,57; 1,46</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-13,76; 12,69</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-12,15; 14,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P3_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,22</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,51</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-2,27</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-1,06</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-0,46</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-6,69%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-1,57%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-0,35%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-6,78%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-3,22%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>-0,53%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>-1,56%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.217493891365574</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.304244652438374</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.8172122773622392</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-2.726225234253976</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-1.08176915776666</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.1458805273986563</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.4934744610311126</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.06685641582508872</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.0388526998891759</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.02493433949562043</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.07996697143603837</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.03282892706031642</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>-0.005253477288594145</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>-0.01686622673720301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,15; 2,92</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,93; 4,61</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,98; 4,91</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-7,43; 2,85</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-6,6; 5,05</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-4,9; 4,53</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-5,4; 4,42</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-20,18; 9,72</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-16,8; 15,32</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-14,43; 16,41</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-20,38; 9,46</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-18,35; 17,56</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>-16,35; 17,46</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>-16,98; 16,97</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-7.148465100548974</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.997369698157013</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-5.793657008658657</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-7.949405852713021</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-6.723024882211001</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-4.89964018068631</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-5.385740378239924</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2017593917751005</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.192658005155227</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1613745401539276</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.2145251861236068</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.1905980818710908</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>-0.1635129643449144</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>-0.16968712606971</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.919479051186308</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.820053208879033</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.109140150140917</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.592827707188651</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>4.94244709607186</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>4.526156040643561</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>4.410228880068181</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.09719756143819111</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.1235111760275008</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.1350106028856173</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.08345193871292984</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.1680318472126092</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>0.174576268827735</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0.1689040891249545</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-4,05</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-4,4</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-6,46</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-3,77</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-4,56</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>3,86</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-6,33%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-7,11%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-10,23%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-6,2%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-7,41%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>1,52%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>7,97%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-9,92; 2,41</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,68; 2,99</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-12,74; -0,6</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-10,42; 2,87</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-12,33; 2,38</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-7,84; 11,01</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-6,88; 13,49</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-14,8; 4,03</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-16,28; 4,99</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-18,82; -0,92</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-16,2; 4,83</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-18,67; 4,18</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>-14,21; 23,83</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>-12,46; 31,3</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-4.046779888556918</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-4.097564062501613</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-6.760515098330688</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-3.478210896363032</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-4.433364000495688</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.7780671596203326</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>3.794501498183955</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.06329432931014815</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.06615002142344391</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.1064363960801957</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-0.05717095250470217</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.07204950821193204</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0.01519446439211492</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0.07827236310308519</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,98</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,13</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,66</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,76</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-4,88</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>6,31%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>10,63%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>9,02%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>9,47%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-6,23%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-9.919481232901601</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-11.12821869805915</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-13.12780058229017</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-10.4154247829896</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-12.00857633508677</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-7.839833326126653</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-6.995941432345696</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1479760432751852</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.1693885754709824</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.192993946908628</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.1593628896674555</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.1820248713387138</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>-0.1421272711416526</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>-0.1258386144797977</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,21; 16,18</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,09; 23,76</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,41; 18,46</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,71; 20,2</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-17,86; 9,3</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-4,77; 23,68</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-2,43; 38,78</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-4,19; 28,59</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-4,56; 34,0</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-21,19; 13,31</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.405188956480681</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.932537112957332</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-0.6381677893727394</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.110394492203424</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>2.811244155008233</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.01169524487015</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>13.57570564181863</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.04029832901597497</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.04931156883904506</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>-0.01031631092018538</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.05412071571085238</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.04865888042053039</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>0.2383204996709012</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>0.3149380216227158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-2,86</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,79</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,75</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-2,64</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-3,71</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-0,48</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-5,6%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-3,61%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-5,56%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-5,37%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-7,43%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>-1,44%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>0,31%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>4.979611315134469</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>7.017656144568319</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6.037620325371218</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>6.168584224995721</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-4.360249996886656</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>0.06306337628474355</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.08927990581765807</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.08112372390888078</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>0.08557910566444007</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>-0.05593478360719618</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,82; 1,0</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,62; 2,79</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-6,79; 1,37</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-6,78; 1,39</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-8,91; 0,67</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-4,88; 3,98</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-4,33; 4,57</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-12,69; 2,09</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-10,76; 6,09</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-13,01; 2,88</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-13,11; 2,9</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-16,57; 1,46</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>-13,76; 12,69</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>-12,15; 14,58</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.214493538160415</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.519148936907618</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.931347019511287</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-4.12230461597184</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-17.46915831629993</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.04765199765347762</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.02916950207952468</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.04795442060454399</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>-0.0533609911387024</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-0.2071211901384943</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>16.18250092863077</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>21.92342451377258</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>17.07844156455724</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>19.80495736021586</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>10.31444976997884</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>0.2368262224145339</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.3332164830000427</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.2564935823109305</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>0.3286262289779132</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>0.1474091458785603</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-2.864312830468613</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.190686861654495</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-3.286827955635069</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-2.807787361800618</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-3.619348485503088</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.4803714601798903</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.06629727532789231</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.05599902306116941</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.04346878555262769</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.06550866268545837</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.05676885987096855</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.0724263533398997</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>-0.0143932643205372</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>0.001955973854208592</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.820880562825625</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-5.872552924107163</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-7.180197428188613</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-7.1161811390831</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-8.795480204113355</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-4.882432653828756</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-4.427903605894298</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.126917822819642</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1123549679073729</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1371760019807564</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.1366928093869621</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.1654780293319425</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>-0.1376340561849648</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>-0.1232486675588733</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.003307253616096</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.826406135153855</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.8503033722652421</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.130575371106888</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.5306628496589449</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>3.982155306336808</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>4.478092891444553</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.02092930092133139</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.05873432672536785</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.01869551388615192</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.02456932767628727</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.01135698814053195</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>0.1268669199820984</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>0.1421850080496965</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
